--- a/team_specific_matrix/Quinnipiac_A.xlsx
+++ b/team_specific_matrix/Quinnipiac_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.182648401826484</v>
+        <v>0.1821561338289963</v>
       </c>
       <c r="C2">
-        <v>0.5753424657534246</v>
+        <v>0.5836431226765799</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0045662100456621</v>
+        <v>0.003717472118959108</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1735159817351598</v>
+        <v>0.171003717472119</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0639269406392694</v>
+        <v>0.05947955390334572</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02142857142857143</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C3">
-        <v>0.06428571428571428</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.007142857142857143</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7785714285714286</v>
+        <v>0.7816091954022989</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1285714285714286</v>
+        <v>0.132183908045977</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0303030303030303</v>
+        <v>0.0625</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7575757575757576</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2121212121212121</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09271523178807947</v>
+        <v>0.08808290155440414</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02649006622516556</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="E6">
-        <v>0.006622516556291391</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="F6">
-        <v>0.04635761589403974</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2251655629139073</v>
+        <v>0.2176165803108808</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.05960264900662252</v>
+        <v>0.05181347150259067</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1390728476821192</v>
+        <v>0.150259067357513</v>
       </c>
       <c r="R6">
-        <v>0.0728476821192053</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="S6">
-        <v>0.3311258278145696</v>
+        <v>0.310880829015544</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09774436090225563</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02255639097744361</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04511278195488722</v>
+        <v>0.04093567251461988</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1578947368421053</v>
+        <v>0.1461988304093567</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1654135338345865</v>
+        <v>0.1695906432748538</v>
       </c>
       <c r="R7">
-        <v>0.06766917293233082</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="S7">
-        <v>0.443609022556391</v>
+        <v>0.4678362573099415</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08517350157728706</v>
+        <v>0.08048780487804878</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01261829652996845</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.02523659305993691</v>
+        <v>0.03414634146341464</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1135646687697161</v>
+        <v>0.1121951219512195</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03154574132492113</v>
+        <v>0.02926829268292683</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2050473186119874</v>
+        <v>0.2024390243902439</v>
       </c>
       <c r="R8">
-        <v>0.1041009463722398</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="S8">
-        <v>0.4227129337539432</v>
+        <v>0.424390243902439</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07894736842105263</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03289473684210526</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09868421052631579</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1052631578947368</v>
+        <v>0.1029411764705882</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006578947368421052</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1907894736842105</v>
+        <v>0.1911764705882353</v>
       </c>
       <c r="R9">
-        <v>0.06578947368421052</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S9">
-        <v>0.4210526315789473</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1044012282497441</v>
+        <v>0.1014263074484945</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01740020470829069</v>
+        <v>0.0213946117274168</v>
       </c>
       <c r="E10">
-        <v>0.002047082906857728</v>
+        <v>0.003169572107765452</v>
       </c>
       <c r="F10">
-        <v>0.06653019447287616</v>
+        <v>0.06339144215530904</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1238485158648925</v>
+        <v>0.1188589540412044</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.03070624360286591</v>
+        <v>0.02931854199683043</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2272262026612078</v>
+        <v>0.2179080824088748</v>
       </c>
       <c r="R10">
-        <v>0.07983623336745138</v>
+        <v>0.08637083993660856</v>
       </c>
       <c r="S10">
-        <v>0.3480040941658137</v>
+        <v>0.358161648177496</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1642512077294686</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.106280193236715</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="K11">
-        <v>0.1884057971014493</v>
+        <v>0.1814671814671815</v>
       </c>
       <c r="L11">
-        <v>0.5314009661835749</v>
+        <v>0.5598455598455598</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00966183574879227</v>
+        <v>0.007722007722007722</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6605504587155964</v>
+        <v>0.696551724137931</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2293577981651376</v>
+        <v>0.2137931034482759</v>
       </c>
       <c r="K12">
-        <v>0.03669724770642202</v>
+        <v>0.02758620689655172</v>
       </c>
       <c r="L12">
-        <v>0.01834862385321101</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05504587155963303</v>
+        <v>0.04137931034482759</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02564102564102564</v>
+        <v>0.02371541501976284</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1333333333333333</v>
+        <v>0.1343873517786561</v>
       </c>
       <c r="I15">
-        <v>0.06153846153846154</v>
+        <v>0.05533596837944664</v>
       </c>
       <c r="J15">
-        <v>0.3948717948717949</v>
+        <v>0.3952569169960474</v>
       </c>
       <c r="K15">
-        <v>0.06153846153846154</v>
+        <v>0.07114624505928854</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01025641025641026</v>
+        <v>0.0158102766798419</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05128205128205128</v>
+        <v>0.05533596837944664</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2615384615384616</v>
+        <v>0.2490118577075099</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01785714285714286</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1726190476190476</v>
+        <v>0.160377358490566</v>
       </c>
       <c r="I16">
-        <v>0.07142857142857142</v>
+        <v>0.07075471698113207</v>
       </c>
       <c r="J16">
-        <v>0.4583333333333333</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="K16">
-        <v>0.05952380952380952</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02976190476190476</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08928571428571429</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1011904761904762</v>
+        <v>0.1037735849056604</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0084985835694051</v>
+        <v>0.008888888888888889</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1756373937677054</v>
+        <v>0.18</v>
       </c>
       <c r="I17">
-        <v>0.113314447592068</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="J17">
-        <v>0.4192634560906516</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="K17">
-        <v>0.0594900849858357</v>
+        <v>0.06888888888888889</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0226628895184136</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0594900849858357</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.141643059490085</v>
+        <v>0.1311111111111111</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,22 +1454,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02816901408450704</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1901408450704225</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I18">
-        <v>0.08450704225352113</v>
+        <v>0.1173469387755102</v>
       </c>
       <c r="J18">
-        <v>0.4366197183098591</v>
+        <v>0.4336734693877551</v>
       </c>
       <c r="K18">
-        <v>0.1056338028169014</v>
+        <v>0.08673469387755102</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04929577464788732</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1056338028169014</v>
+        <v>0.09183673469387756</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0198019801980198</v>
+        <v>0.02058319039451115</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1958195819581958</v>
+        <v>0.1981132075471698</v>
       </c>
       <c r="I19">
-        <v>0.0847084708470847</v>
+        <v>0.08747855917667238</v>
       </c>
       <c r="J19">
-        <v>0.372937293729373</v>
+        <v>0.3893653516295026</v>
       </c>
       <c r="K19">
-        <v>0.1122112211221122</v>
+        <v>0.1063464837049743</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0308030803080308</v>
+        <v>0.0274442538593482</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.0008576329331046312</v>
       </c>
       <c r="O19">
-        <v>0.0781078107810781</v>
+        <v>0.07289879931389365</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1056105610561056</v>
+        <v>0.09691252144082332</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Quinnipiac_A.xlsx
+++ b/team_specific_matrix/Quinnipiac_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1821561338289963</v>
+        <v>0.1795774647887324</v>
       </c>
       <c r="C2">
-        <v>0.5836431226765799</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003717472118959108</v>
+        <v>0.00352112676056338</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.171003717472119</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05947955390334572</v>
+        <v>0.05633802816901409</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01724137931034483</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C3">
-        <v>0.05747126436781609</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01149425287356322</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7816091954022989</v>
+        <v>0.7724867724867724</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.132183908045977</v>
+        <v>0.1322751322751323</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0625</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7083333333333334</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2291666666666667</v>
+        <v>0.2115384615384615</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08808290155440414</v>
+        <v>0.08653846153846154</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02072538860103627</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="E6">
-        <v>0.005181347150259068</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="F6">
-        <v>0.05699481865284974</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2176165803108808</v>
+        <v>0.2211538461538461</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.05181347150259067</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.150259067357513</v>
+        <v>0.1490384615384615</v>
       </c>
       <c r="R6">
-        <v>0.09844559585492228</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="S6">
-        <v>0.310880829015544</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08771929824561403</v>
+        <v>0.08465608465608465</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02339181286549707</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04093567251461988</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1461988304093567</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005847953216374269</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1695906432748538</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="R7">
-        <v>0.05847953216374269</v>
+        <v>0.06878306878306878</v>
       </c>
       <c r="S7">
-        <v>0.4678362573099415</v>
+        <v>0.4603174603174603</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08048780487804878</v>
+        <v>0.07900677200902935</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01951219512195122</v>
+        <v>0.01805869074492099</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03414634146341464</v>
+        <v>0.03611738148984198</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1121951219512195</v>
+        <v>0.1196388261851016</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02926829268292683</v>
+        <v>0.02934537246049661</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2024390243902439</v>
+        <v>0.2009029345372461</v>
       </c>
       <c r="R8">
-        <v>0.0975609756097561</v>
+        <v>0.09706546275395034</v>
       </c>
       <c r="S8">
-        <v>0.424390243902439</v>
+        <v>0.4198645598194131</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08333333333333333</v>
+        <v>0.07834101382488479</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02941176470588235</v>
+        <v>0.02764976958525346</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08333333333333333</v>
+        <v>0.07834101382488479</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1029411764705882</v>
+        <v>0.1059907834101382</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009803921568627451</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1911764705882353</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="R9">
-        <v>0.08333333333333333</v>
+        <v>0.08755760368663594</v>
       </c>
       <c r="S9">
-        <v>0.4166666666666667</v>
+        <v>0.4147465437788018</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1014263074484945</v>
+        <v>0.1010324483775811</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0213946117274168</v>
+        <v>0.02286135693215339</v>
       </c>
       <c r="E10">
-        <v>0.003169572107765452</v>
+        <v>0.002949852507374631</v>
       </c>
       <c r="F10">
-        <v>0.06339144215530904</v>
+        <v>0.06415929203539823</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1188589540412044</v>
+        <v>0.1202064896755162</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02931854199683043</v>
+        <v>0.02949852507374631</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2179080824088748</v>
+        <v>0.21976401179941</v>
       </c>
       <c r="R10">
-        <v>0.08637083993660856</v>
+        <v>0.084070796460177</v>
       </c>
       <c r="S10">
-        <v>0.358161648177496</v>
+        <v>0.3554572271386431</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.147887323943662</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1081081081081081</v>
+        <v>0.102112676056338</v>
       </c>
       <c r="K11">
-        <v>0.1814671814671815</v>
+        <v>0.1866197183098592</v>
       </c>
       <c r="L11">
-        <v>0.5598455598455598</v>
+        <v>0.5528169014084507</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007722007722007722</v>
+        <v>0.01056338028169014</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.696551724137931</v>
+        <v>0.7025316455696202</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2137931034482759</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="K12">
-        <v>0.02758620689655172</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="L12">
-        <v>0.02068965517241379</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04137931034482759</v>
+        <v>0.0379746835443038</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7291666666666666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2708333333333333</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02371541501976284</v>
+        <v>0.02214022140221402</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1343873517786561</v>
+        <v>0.1328413284132841</v>
       </c>
       <c r="I15">
-        <v>0.05533596837944664</v>
+        <v>0.06273062730627306</v>
       </c>
       <c r="J15">
-        <v>0.3952569169960474</v>
+        <v>0.3874538745387454</v>
       </c>
       <c r="K15">
-        <v>0.07114624505928854</v>
+        <v>0.07011070110701106</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0158102766798419</v>
+        <v>0.01476014760147601</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05533596837944664</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2490118577075099</v>
+        <v>0.2546125461254612</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02358490566037736</v>
+        <v>0.02202643171806168</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.160377358490566</v>
+        <v>0.1629955947136564</v>
       </c>
       <c r="I16">
-        <v>0.07075471698113207</v>
+        <v>0.06607929515418502</v>
       </c>
       <c r="J16">
-        <v>0.4528301886792453</v>
+        <v>0.4537444933920705</v>
       </c>
       <c r="K16">
-        <v>0.05660377358490566</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03773584905660377</v>
+        <v>0.04405286343612335</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.09433962264150944</v>
+        <v>0.0881057268722467</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1037735849056604</v>
+        <v>0.1101321585903084</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008888888888888889</v>
+        <v>0.01026694045174538</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.18</v>
+        <v>0.1827515400410678</v>
       </c>
       <c r="I17">
-        <v>0.1133333333333333</v>
+        <v>0.1108829568788501</v>
       </c>
       <c r="J17">
-        <v>0.4133333333333333</v>
+        <v>0.4106776180698152</v>
       </c>
       <c r="K17">
-        <v>0.06888888888888889</v>
+        <v>0.07392197125256673</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01777777777777778</v>
+        <v>0.01642710472279261</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06666666666666667</v>
+        <v>0.06776180698151951</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1311111111111111</v>
+        <v>0.1273100616016427</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03061224489795918</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1785714285714286</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I18">
-        <v>0.1173469387755102</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="J18">
-        <v>0.4336734693877551</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K18">
-        <v>0.08673469387755102</v>
+        <v>0.1095238095238095</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06122448979591837</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09183673469387756</v>
+        <v>0.08571428571428572</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02058319039451115</v>
+        <v>0.0208</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1981132075471698</v>
+        <v>0.2</v>
       </c>
       <c r="I19">
-        <v>0.08747855917667238</v>
+        <v>0.0848</v>
       </c>
       <c r="J19">
-        <v>0.3893653516295026</v>
+        <v>0.3888</v>
       </c>
       <c r="K19">
-        <v>0.1063464837049743</v>
+        <v>0.1048</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0274442538593482</v>
+        <v>0.028</v>
       </c>
       <c r="N19">
-        <v>0.0008576329331046312</v>
+        <v>0.0008</v>
       </c>
       <c r="O19">
-        <v>0.07289879931389365</v>
+        <v>0.0728</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09691252144082332</v>
+        <v>0.0992</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Quinnipiac_A.xlsx
+++ b/team_specific_matrix/Quinnipiac_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1795774647887324</v>
+        <v>0.18</v>
       </c>
       <c r="C2">
-        <v>0.5915492957746479</v>
+        <v>0.5933333333333334</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00352112676056338</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1690140845070423</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05633802816901409</v>
+        <v>0.05666666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01587301587301587</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="C3">
-        <v>0.06349206349206349</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01587301587301587</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7724867724867724</v>
+        <v>0.7688442211055276</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1322751322751323</v>
+        <v>0.135678391959799</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0576923076923077</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7307692307692307</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2115384615384615</v>
+        <v>0.1896551724137931</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08653846153846154</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01923076923076923</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="E6">
-        <v>0.004807692307692308</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="F6">
-        <v>0.0576923076923077</v>
+        <v>0.05701754385964912</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2211538461538461</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04807692307692308</v>
+        <v>0.05701754385964912</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1490384615384615</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="R6">
-        <v>0.1009615384615385</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S6">
-        <v>0.3125</v>
+        <v>0.3114035087719298</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08465608465608465</v>
+        <v>0.08040201005025126</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02116402116402116</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03703703703703703</v>
+        <v>0.04020100502512563</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1481481481481481</v>
+        <v>0.1407035175879397</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01058201058201058</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1693121693121693</v>
+        <v>0.1758793969849246</v>
       </c>
       <c r="R7">
-        <v>0.06878306878306878</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="S7">
-        <v>0.4603174603174603</v>
+        <v>0.4522613065326633</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07900677200902935</v>
+        <v>0.07708779443254818</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01805869074492099</v>
+        <v>0.01927194860813704</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.03611738148984198</v>
+        <v>0.03640256959314775</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1196388261851016</v>
+        <v>0.1177730192719486</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02934537246049661</v>
+        <v>0.03426124197002142</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2009029345372461</v>
+        <v>0.2077087794432548</v>
       </c>
       <c r="R8">
-        <v>0.09706546275395034</v>
+        <v>0.09635974304068523</v>
       </c>
       <c r="S8">
-        <v>0.4198645598194131</v>
+        <v>0.411134903640257</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07834101382488479</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02764976958525346</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07834101382488479</v>
+        <v>0.0735930735930736</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1059907834101382</v>
+        <v>0.09956709956709957</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01382488479262673</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1935483870967742</v>
+        <v>0.1861471861471861</v>
       </c>
       <c r="R9">
-        <v>0.08755760368663594</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="S9">
-        <v>0.4147465437788018</v>
+        <v>0.4329004329004329</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1010324483775811</v>
+        <v>0.1018582243633861</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02286135693215339</v>
+        <v>0.02408809359944942</v>
       </c>
       <c r="E10">
-        <v>0.002949852507374631</v>
+        <v>0.002752924982794219</v>
       </c>
       <c r="F10">
-        <v>0.06415929203539823</v>
+        <v>0.0653819683413627</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1202064896755162</v>
+        <v>0.1183757742601514</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02949852507374631</v>
+        <v>0.03097040605643496</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.21976401179941</v>
+        <v>0.2222986923606332</v>
       </c>
       <c r="R10">
-        <v>0.084070796460177</v>
+        <v>0.08121128699242945</v>
       </c>
       <c r="S10">
-        <v>0.3554572271386431</v>
+        <v>0.3530626290433586</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.147887323943662</v>
+        <v>0.1471571906354515</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.102112676056338</v>
+        <v>0.1003344481605351</v>
       </c>
       <c r="K11">
-        <v>0.1866197183098592</v>
+        <v>0.1839464882943144</v>
       </c>
       <c r="L11">
-        <v>0.5528169014084507</v>
+        <v>0.5585284280936454</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01056338028169014</v>
+        <v>0.01003344481605351</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7025316455696202</v>
+        <v>0.6982248520710059</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2088607594936709</v>
+        <v>0.1952662721893491</v>
       </c>
       <c r="K12">
-        <v>0.02531645569620253</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="L12">
-        <v>0.02531645569620253</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0379746835443038</v>
+        <v>0.05917159763313609</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7407407407407407</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2592592592592592</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02214022140221402</v>
+        <v>0.02333333333333333</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1328413284132841</v>
+        <v>0.1366666666666667</v>
       </c>
       <c r="I15">
-        <v>0.06273062730627306</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J15">
-        <v>0.3874538745387454</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="K15">
-        <v>0.07011070110701106</v>
+        <v>0.06333333333333334</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01476014760147601</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05535055350553506</v>
+        <v>0.06</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2546125461254612</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02202643171806168</v>
+        <v>0.02916666666666667</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1629955947136564</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="I16">
-        <v>0.06607929515418502</v>
+        <v>0.0625</v>
       </c>
       <c r="J16">
-        <v>0.4537444933920705</v>
+        <v>0.4625</v>
       </c>
       <c r="K16">
-        <v>0.05286343612334802</v>
+        <v>0.05</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04405286343612335</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0881057268722467</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1101321585903084</v>
+        <v>0.1083333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01026694045174538</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1827515400410678</v>
+        <v>0.1828571428571429</v>
       </c>
       <c r="I17">
-        <v>0.1108829568788501</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="J17">
-        <v>0.4106776180698152</v>
+        <v>0.4095238095238095</v>
       </c>
       <c r="K17">
-        <v>0.07392197125256673</v>
+        <v>0.07809523809523809</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01642710472279261</v>
+        <v>0.01523809523809524</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06776180698151951</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1273100616016427</v>
+        <v>0.1257142857142857</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02857142857142857</v>
+        <v>0.03181818181818181</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1666666666666667</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="I18">
-        <v>0.119047619047619</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="J18">
-        <v>0.4285714285714285</v>
+        <v>0.4318181818181818</v>
       </c>
       <c r="K18">
-        <v>0.1095238095238095</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.004761904761904762</v>
+        <v>0.004545454545454545</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05714285714285714</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08571428571428572</v>
+        <v>0.08636363636363636</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0208</v>
+        <v>0.02098950524737631</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2</v>
+        <v>0.1971514242878561</v>
       </c>
       <c r="I19">
-        <v>0.0848</v>
+        <v>0.08395802098950525</v>
       </c>
       <c r="J19">
-        <v>0.3888</v>
+        <v>0.3958020989505248</v>
       </c>
       <c r="K19">
-        <v>0.1048</v>
+        <v>0.1026986506746627</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.028</v>
+        <v>0.02698650674662669</v>
       </c>
       <c r="N19">
-        <v>0.0008</v>
+        <v>0.0007496251874062968</v>
       </c>
       <c r="O19">
-        <v>0.0728</v>
+        <v>0.07271364317841079</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.0992</v>
+        <v>0.09895052473763119</v>
       </c>
     </row>
   </sheetData>
